--- a/1-Data/WG2_24-25_Light_Data.xlsx
+++ b/1-Data/WG2_24-25_Light_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\1-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AB70C0-DC62-463F-9F92-AFFFB979385C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAF254C-0139-41B7-B917-70DB8148D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{33E9B35D-F66D-4077-A58B-DA086FD140C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="78">
   <si>
     <t>pi_name</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>currie_burlington_26Feb24_w_snow_1.24_m</t>
+  </si>
+  <si>
+    <t>Air</t>
   </si>
 </sst>
 </file>
@@ -665,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1D3BD1-F188-42C7-81BF-36711A57E2C4}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,6 +1619,19 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="str">
+        <f>CONCATENATE("LiCor","_", "snow","_",C37)</f>
+        <v>LiCor_snow_Air</v>
+      </c>
       <c r="H37" t="s">
         <v>17</v>
       </c>
